--- a/output/Identification table.xlsx
+++ b/output/Identification table.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gianiranzetti/Github/Monetary-policy-effect-on-Stock-Prices/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF11670-C7FE-FD4B-AE83-9EFCDD15C720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F46D18-B721-1B43-B6DA-65246E5A70D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15080" xr2:uid="{D8341441-0B57-9246-8BFC-D9ED912453FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,23 +36,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Variable</t>
   </si>
   <si>
-    <t>mt</t>
-  </si>
-  <si>
     <t>Interest rate</t>
   </si>
   <si>
     <t>Stock Index</t>
   </si>
   <si>
-    <t>yt</t>
-  </si>
-  <si>
     <t>Monetary Policy (negative co-movement)</t>
   </si>
   <si>
@@ -72,13 +66,79 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Notes: Restrictions on the contemporaneous responses of variables to shocks. +, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and 0 denote the respective sign restrictions and ‘zero’ restrictions.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>t</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>t</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -106,6 +166,29 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow (Body)"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -121,7 +204,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -149,16 +232,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -178,6 +267,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -523,105 +618,108 @@
   <cols>
     <col min="4" max="4" width="20.83203125" customWidth="1"/>
     <col min="5" max="5" width="20.1640625" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="D1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>11</v>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="10" t="s">
-        <v>1</v>
+      <c r="B3" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="11" t="s">
-        <v>2</v>
+      <c r="B4" s="10" t="s">
+        <v>1</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="12">
+      <c r="D4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="11">
         <v>0</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="11" t="s">
-        <v>3</v>
+      <c r="B5" s="10" t="s">
+        <v>2</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="12">
+      <c r="D5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="11">
         <v>0</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="8" t="s">
+      <c r="B6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -661,8 +759,9 @@
       <c r="G11" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="D1:F1"/>
+    <mergeCell ref="B7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
